--- a/biology/Médecine/In_utero/In_utero.xlsx
+++ b/biology/Médecine/In_utero/In_utero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les phénomènes in utero ou in utéro (du latin signifiant littéralement « dans l'utérus ») sont, en biologie, les phénomènes qui se déroulent dans l'utérus en gestation, et qui peuvent potentiellement affecter l'embryon ou le fœtus, avant la naissance (lors du développement prénatal).
